--- a/script/Pr_temp_spreadsheets/05_00_ARC05_9B.xlsx
+++ b/script/Pr_temp_spreadsheets/05_00_ARC05_9B.xlsx
@@ -1325,7 +1325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ba6825a6-bc94-4de4-b862-5714c9270da1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26b50554-b212-4476-9747-d28f59ea54e0}">
   <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -2631,7 +2631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135917d1-607e-4732-8964-256105018258}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6943af12-bfa7-4f18-bfb8-ebabb90a6af9}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
